--- a/local/sm/export/template/classes_template.xlsx
+++ b/local/sm/export/template/classes_template.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Trợ giảng:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhận xét </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link </t>
   </si>
 </sst>
 </file>
@@ -71,27 +77,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
+      <color rgb="FF7891B0"/>
       <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <sz val="11"/>
+      <color rgb="FF7891B0"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -111,17 +114,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+      <left style="medium">
+        <color rgb="FF7891B0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7891B0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7891B0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7891B0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color rgb="FF7891B0"/>
       </left>
       <right/>
       <top/>
@@ -131,7 +140,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color rgb="FF7891B0"/>
       </right>
       <top/>
       <bottom/>
@@ -139,60 +148,32 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color rgb="FF7891B0"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color rgb="FF7891B0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color rgb="FF7891B0"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color rgb="FF7891B0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </right>
-      <top style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7891B0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -200,36 +181,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,94 +503,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="8" width="20" customWidth="1"/>
+    <col min="9" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -646,18 +628,24 @@
       <c r="H7" t="s">
         <v>7</v>
       </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G23" s="1"/>
+      <c r="G23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
